--- a/PCB_SOTB_LWC/SOTB_LWC_cpl1_2.xlsx
+++ b/PCB_SOTB_LWC/SOTB_LWC_cpl1_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup\PCB_SOTB_LWC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0AA0BB-C231-4E16-AAD4-D760C783E9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF7FF1A-4AE7-4AE8-A3CE-E1B207A650CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,9 +237,6 @@
     <t>2.7nF</t>
   </si>
   <si>
-    <t>CHIPLED_1206</t>
-  </si>
-  <si>
     <t>LP38511MR-ADJ_NOPB</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>Q13FC1350000400</t>
+  </si>
+  <si>
+    <t>CHIPLED_0805</t>
   </si>
 </sst>
 </file>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" s="6">
         <v>31.12</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" s="6">
         <v>34.29</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" s="6">
         <v>31.12</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" s="6">
         <v>31.12</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" s="6">
         <v>34.29</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" s="6">
         <v>31.12</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" s="6">
         <v>34.29</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="6">
         <v>-10.79</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41" s="6">
         <v>-10.79</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43" s="6">
         <v>-0.64</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44" s="6">
         <v>-0.64</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45" s="6">
         <v>9.5299999999999994</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="6">
         <v>9.5299999999999994</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="6">
         <v>-46.36</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="6">
         <v>-46.36</v>
@@ -1765,13 +1765,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" s="6">
         <v>-19.690000000000001</v>
       </c>
       <c r="C61" s="6">
-        <v>-55.88</v>
+        <v>-56.52</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>30</v>
@@ -1782,13 +1782,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="6">
         <v>-15.24</v>
       </c>
       <c r="C62" s="6">
-        <v>-55.88</v>
+        <v>-56.52</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>30</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B77" s="6">
         <v>-48.26</v>
@@ -2584,7 +2584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F53A27-57CF-469E-8D90-C4FCB4851C5B}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D76"/>
     </sheetView>
   </sheetViews>
@@ -2847,10 +2847,10 @@
         <v>180</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -2867,10 +2867,10 @@
         <v>270</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3215,7 +3215,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32">
         <v>31.12</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33">
         <v>34.29</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34">
         <v>31.12</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B35">
         <v>31.12</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36">
         <v>34.29</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37">
         <v>31.12</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38">
         <v>34.29</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39">
         <v>-10.79</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40">
         <v>-10.79</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42">
         <v>-0.64</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43">
         <v>-0.64</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44">
         <v>9.5299999999999994</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45">
         <v>9.5299999999999994</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46">
         <v>-46.36</v>
@@ -3507,15 +3507,15 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47">
         <v>-46.36</v>
@@ -3527,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" t="s">
         <v>72</v>
-      </c>
-      <c r="F52" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" t="s">
         <v>72</v>
-      </c>
-      <c r="F53" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -3667,10 +3667,10 @@
         <v>90</v>
       </c>
       <c r="E54" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" t="s">
         <v>72</v>
-      </c>
-      <c r="F54" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -3687,10 +3687,10 @@
         <v>270</v>
       </c>
       <c r="E55" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" t="s">
         <v>74</v>
-      </c>
-      <c r="F55" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -3727,7 +3727,7 @@
         <v>180</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -3744,7 +3744,7 @@
         <v>180</v>
       </c>
       <c r="F58" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -3761,41 +3761,41 @@
         <v>270</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60">
         <v>-19.690000000000001</v>
       </c>
       <c r="C60">
-        <v>-55.88</v>
+        <v>-56.52</v>
       </c>
       <c r="D60">
         <v>180</v>
       </c>
       <c r="F60" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61">
         <v>-15.24</v>
       </c>
       <c r="C61">
-        <v>-55.88</v>
+        <v>-56.52</v>
       </c>
       <c r="D61">
         <v>180</v>
       </c>
       <c r="F61" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -3812,10 +3812,10 @@
         <v>270</v>
       </c>
       <c r="E62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" t="s">
         <v>77</v>
-      </c>
-      <c r="F62" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -3835,7 +3835,7 @@
         <v>100</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -3852,10 +3852,10 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -3872,10 +3872,10 @@
         <v>90</v>
       </c>
       <c r="E65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
@@ -3892,10 +3892,10 @@
         <v>270</v>
       </c>
       <c r="E66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
@@ -3935,7 +3935,7 @@
         <v>330</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
@@ -3952,10 +3952,10 @@
         <v>270</v>
       </c>
       <c r="E69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -3972,10 +3972,10 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -3992,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
@@ -4015,7 +4015,7 @@
         <v>357</v>
       </c>
       <c r="F72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
@@ -4032,10 +4032,10 @@
         <v>90</v>
       </c>
       <c r="E73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -4052,10 +4052,10 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
@@ -4075,12 +4075,12 @@
         <v>55</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76">
         <v>-48.26</v>
@@ -4092,14 +4092,15 @@
         <v>180</v>
       </c>
       <c r="E76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>